--- a/hardware example/BOM for 1 tracker.xlsx
+++ b/hardware example/BOM for 1 tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ong_1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ong_1\Documents\GitHub\IMU-VR-Full-Body-Tracker\hardware example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604EB549-E7F1-47D6-A5F3-3288550E0B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E8F580-7366-4A9C-BC4C-E61AAAC63A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DA1A295-C441-4596-9817-7ACD942DCDA5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Items</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>803040 LiPo</t>
+  </si>
+  <si>
+    <t>TTGO T7 v1.5 - GY-BNO08X enclosure</t>
+  </si>
+  <si>
+    <t>38 mm width strap</t>
   </si>
 </sst>
 </file>
@@ -172,12 +178,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,9 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D4790-E161-4157-B071-8BC62A909EB0}">
-  <dimension ref="B1:C12"/>
+  <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -590,6 +599,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
